--- a/Evaluation/eval001/sub0175/Classifcation Report.xlsx
+++ b/Evaluation/eval001/sub0175/Classifcation Report.xlsx
@@ -400,13 +400,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9423076923076923</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C2" t="n">
         <v>0.9702970297029703</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9560975609756097</v>
+        <v>0.9514563106796117</v>
       </c>
       <c r="E2" t="n">
         <v>101</v>
@@ -419,13 +419,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9693877551020408</v>
+        <v>0.9690721649484536</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9405940594059405</v>
+        <v>0.9306930693069307</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9547738693467337</v>
+        <v>0.9494949494949495</v>
       </c>
       <c r="E3" t="n">
         <v>101</v>
@@ -438,16 +438,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9554455445544554</v>
+        <v>0.9504950495049505</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9554455445544554</v>
+        <v>0.9504950495049505</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9554455445544554</v>
+        <v>0.9504950495049505</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9554455445544554</v>
+        <v>0.9504950495049505</v>
       </c>
     </row>
     <row r="5">
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9558477237048666</v>
+        <v>0.9512027491408934</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9554455445544554</v>
+        <v>0.9504950495049505</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9554357151611717</v>
+        <v>0.9504756300872805</v>
       </c>
       <c r="E5" t="n">
         <v>202</v>
@@ -476,13 +476,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9558477237048666</v>
+        <v>0.9512027491408934</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9554455445544554</v>
+        <v>0.9504950495049505</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9554357151611717</v>
+        <v>0.9504756300872805</v>
       </c>
       <c r="E6" t="n">
         <v>202</v>
